--- a/passwords/dealers_password.xlsx
+++ b/passwords/dealers_password.xlsx
@@ -433,36 +433,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Username</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Original Password</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>New Hashed Password</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>D_ANJALITOY001</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Anjali@734$</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>$2b$10$lr9DxTtUMsGxlEK5.WWUa.BmH1NBbmSTFgeJaP1jaS3ohCiZoEuXu</t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>$2b$10$UE4Fy6vRoQ3ux6G8EZyJBOc5MMUPvm404K8cZ3bIXkoOFCKxQf2Ku</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2b$10$I6Wa7H2jTpH4EUuFEMLvw.idMvuQpT.naWZJ5fSnuYgXaXEfxHvzq</t>
+          <t>$2b$10$pGeUWPatady1022jQm31J.Nz6X6s3ZRVPec4qpJHHFtR/gOr/cusq</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$2b$10$YoYIgGyCJIj1Df95dA.cJOve0XPnRJlAk9VMetS2AGq552mhpT1kC</t>
+          <t>$2b$10$OfyN0BEZ8iV3w0GlVZ2m7.jajxCP34XKlFiQaqYEHY6Qm12dC3UDy</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2b$10$Z3wleYd5tXD.UGlXic6H4usT.qFC0JEbUYe9K/.Z0XHkRuDqEB.9W</t>
+          <t>$2b$10$RwLatoVIvWS/UV0ZOo6x0O5tOseBcUqmC3GAhO.R6TAM7ORH4c3xi</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2b$10$VKjeyzkQWCdFAY.uRgrF7OWOsBE2MF/.MBPAwwSiA2xDw3WMVSyL2</t>
+          <t>$2b$10$PrPFHrODDQbxOUgA8xTQc.VoPD1UX4f06tRHPlzEfbpT5VsgMWrVK</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$2b$10$ghMX1RfBLR8wvqF5rQxfSuj73szYtYFbHT.ZP1brGLDr03saMbBl2</t>
+          <t>$2b$10$W/M/oeyADIWz7FsyUpJ64.5e6zpqsJbwsFLJhOI6V6E0BOxSB54aS</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$2b$10$D3tvpRYmcM3xtZneRnRGi.ZPMGVWb2tdGb7005XVYnoJJxxTF8yMa</t>
+          <t>$2b$10$Bqo/DwW7n4IZDELnKr6t0.Hz7S/csVuEd274oCqh74tgADNsaGQAS</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$2b$10$XcnoFWUAuEzU5CcQ/jrzkO4Q58ppsj.OYP4xavKYYbxffJU6BdtkK</t>
+          <t>$2b$10$DNUXiJAxD.t6pgrt6anBaODTQI2o6m/q8BaOCyWFISeI72qAASSRe</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$2b$10$tGEJEfcuUhKUNTJLSVVJ8eayFewIQdN2l6l3xNrytEnAak4Fcea2q</t>
+          <t>$2b$10$1sulnbcPoAiPfHeYlfJXWOc8AxJkK8.aRixzHx4Yvj4Ev7n3nSuAm</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$2b$10$fgUlavsW.eCQtSJMW0ocQeIBxyu0ylw/7G0VsQIuPTsudi.H0fmgS</t>
+          <t>$2b$10$n9gcYmfxARo1Yft8DnPt1emT.iY/YYG4N5nme9T0kEu9oPv8aVrgq</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2b$10$DJW9LP0E1wBdA8l17ZqKvufLXeJUbQgy1.UhjAxakEHr/5hba//4e</t>
+          <t>$2b$10$u6KC6NjfbDRafhqRvDaW6.0lwHSpZvclk6s.iPmFn.rQ2anP6U0ai</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2b$10$iEFU1d9K6q5M0halA8MG1.XThIS7VtbHSpnONJ.FZ4pMTrZ.PSGQi</t>
+          <t>$2b$10$/m5HnznXjuujiyM9WYpKTOUpDjmxTa3R8.58oZ6uoleXG/zPKDwQm</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$2b$10$fcHDutW./YKo.3h4aBikAO1bO9BrjA6sx9MiO434v74vXNitaclE6</t>
+          <t>$2b$10$8QpOSn.C3yhdnelfmFSxTua7myop8Z2pOhfvA802BNfe9k/3MhbXS</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$2b$10$cMJDC2EtT3DnKJVzBAvNTeWBmE7.tZL8YdTjW6LVg5gKqu2R8JUK6</t>
+          <t>$2b$10$aWTSqe37E55CK3IfT75XgOMxTbLl0vBwXrasdtdDJuEtSoqJ6jykq</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$2b$10$OoRRczvmxw0wjzN5iHigve3t0PzCMot5UG4ndo2xK25dRb7tS.VpK</t>
+          <t>$2b$10$xLcAH/xu10vX01YeQcUQ6eJGeHa95D.ARBvInaHQPCEucV90IhIF.</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$2b$10$wIR7aI1cEE3NZn.xBuJChO0iuJfxPhWtq6bUvJY6InOUcibUgVNDG</t>
+          <t>$2b$10$OwbsCzpu4mhDQpM9lMk/XucpH8Dv4E92.WBVRTNb4XPm1PmmbgqXW</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$2b$10$/1gPXyzE/iX5hWXwVsym0ur0AA5Yx3BVDp3cbojZeRM8cO/LWrIBC</t>
+          <t>$2b$10$8.t3VLCcyyZUZwej/Vi3MOv92Lkgw22FLQXToBC0I76LGPszhxbP2</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$2b$10$H2NLaTwq1jKKCRwiCf2EPOtnwNm/mOUcamxUlpIPFRRRlHuPclw5e</t>
+          <t>$2b$10$IDErbMq4m.f/ZG.m5gnopuveoC72Y0vNNK85r5F9ybkfSZMmnIzHi</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$2b$10$rQ27.B.6MDPyBfUI4TMoG.5Xtg0ODa2U3jVbthzPnkQhJEOUI1JmS</t>
+          <t>$2b$10$Nq8oFMsICbvEfBYaGhzgSuZTyq489XqDhs0znYGiKZuWaZ6O9w2li</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$2b$10$7Bp3vA9gAWc8vt8lCQ9CCO8IUr3380WVeAcqaakpMsdCoqJGfHlHu</t>
+          <t>$2b$10$dvI/8aG7CoxCOFEDWyfDW.LMDRT4isu6BfKn.YviC0fch7/PTWzgS</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$2b$10$mYb9nQKD3/IPjLzv2BIg7ODlRZRUTqRp/G2rwhp3Y0HtUZiqF72FW</t>
+          <t>$2b$10$3yixvJmtqFESFlDT0jxdLewblxPsqEUd9j.wEd9dLLzEAnRXHPDKu</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2b$10$.YBfRzEPk8AXXXMJzlMX6./ffkrewhOJWwLOZFq9ZSn6/naM2UllS</t>
+          <t>$2b$10$1Mwd19UzdiXBAbg.V1JQLehEAczA/dF17oJ45n3TC8GPqtIxrb3aO</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$2b$10$N9/BWToCyqRjtPhrzThfe.VJRbk8KnBH61zLOieO/J4GxjdNiIXEe</t>
+          <t>$2b$10$H9WsuWgkDZ98eheQknpqtelFEWLs.SeMNWPJxRQM9iNBnOCOdOeqm</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$2b$10$8mPyCLJSl9.2Dku5zT5QEuVuRK0Fj9qSfpIvy.lXhHdVzay3DLwbi</t>
+          <t>$2b$10$fdn9o6qlKmpS0OjAkabZAeMYld1E3bmd3cNTc89H3Z2peHP0LPs4i</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2b$10$AnLrR4JigEd7tOBMEPycOeP3RAV2NE5fEI8HNcHz9eIuR.dEoHzku</t>
+          <t>$2b$10$MzKBeVISBkgmAx48y8aZNOkx8jQKWA8WJe9ne7oz3eLNXq3bR034y</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$2b$10$W4ABNaRvg6L0lrUbJKIkN.fcyjgroeO5Tq3ALgKk/e.BWGbj414im</t>
+          <t>$2b$10$sz53cehQkiWZSey76ApdHOu64x3tcU7cHrWm6KNLhi/E46HhE8772</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$2b$10$ICqfhDU1.P40JRzPgpnq9OzRsyyamic7LtZWD9qDTe/5.kZ6pDZPG</t>
+          <t>$2b$10$N7fTIFOp3uHNYOjRAb6IyOyUofuC5BcIyXXp4UQd.jotlHv1vefVS</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$2b$10$QZT3G7CtMu8Ajqb6CHxTiuTA0j/IoZNVvw6/6f6CQLK3mTt/y/NJW</t>
+          <t>$2b$10$KdfYcGkH0QyuncShHRZJNu3rFkXGciNdTCJJ836J5PzfcPmPRUpxC</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$2b$10$H43c7JANCk.RKEM9Tq6mCukgtRpp9bC6lFBOt.5/xyYXf.GGD9Ot.</t>
+          <t>$2b$10$PxTDh8jwFDOUFPrP34htkuZu0bcv6JMsTDTqH1mKkosfhLJ5/j5gC</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$2b$10$kG/tUXDIN6FTvSS5DBh1ruhj.xDqxm5fVN8MBG9//eEsiIfpRdQVa</t>
+          <t>$2b$10$Z8QAWEluUwdNJHLQkllFVu4gVzob.TOhJ1DKP65TdRZpOFEvPupxu</t>
         </is>
       </c>
     </row>

--- a/passwords/dealers_password.xlsx
+++ b/passwords/dealers_password.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$2b$10$UE4Fy6vRoQ3ux6G8EZyJBOc5MMUPvm404K8cZ3bIXkoOFCKxQf2Ku</t>
+          <t>$2b$10$zKZEiP/EXLr87BTtyuxcfugfzFoFxwHVNqrEvmL6hlGVrLHgcXGKe</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2b$10$pGeUWPatady1022jQm31J.Nz6X6s3ZRVPec4qpJHHFtR/gOr/cusq</t>
+          <t>$2b$10$SxqbS/CYGZG/ar/CodD4JuJd7s/zg49VHOTeLvR9SARnp5bcwdIVu</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$2b$10$OfyN0BEZ8iV3w0GlVZ2m7.jajxCP34XKlFiQaqYEHY6Qm12dC3UDy</t>
+          <t>$2b$10$yjCF95I3vOITNzd4x.IEveyyyjkDWaXH72ANWB8l2e71YjdeQKYDm</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2b$10$RwLatoVIvWS/UV0ZOo6x0O5tOseBcUqmC3GAhO.R6TAM7ORH4c3xi</t>
+          <t>$2b$10$ECCIP0D81HKXpwe2yIiFL.zX1ZCIWVHD7yH5MUdzkTdgculSkPm42</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2b$10$PrPFHrODDQbxOUgA8xTQc.VoPD1UX4f06tRHPlzEfbpT5VsgMWrVK</t>
+          <t>$2b$10$EZ3LrmJp1kcJO0LCI0eBE.3FWtVB6t2Dc1C3QWW5iJ4V2RUf5miES</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$2b$10$W/M/oeyADIWz7FsyUpJ64.5e6zpqsJbwsFLJhOI6V6E0BOxSB54aS</t>
+          <t>$2b$10$ggMSKZESkhbp6hOmQy7xzePh6i9FNMWPKx/UgWknCD4TnWWb6k/8S</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$2b$10$Bqo/DwW7n4IZDELnKr6t0.Hz7S/csVuEd274oCqh74tgADNsaGQAS</t>
+          <t>$2b$10$C47l/SUnIgKcsKaP4yWXLuFLueLuN5gI/QYnplP95RwPYlC7Z009.</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$2b$10$DNUXiJAxD.t6pgrt6anBaODTQI2o6m/q8BaOCyWFISeI72qAASSRe</t>
+          <t>$2b$10$ScxEvRDrVzIazf4j/7IysOX6WUq1L85XvyZs7UNmb28qa3GSvWA5y</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$2b$10$1sulnbcPoAiPfHeYlfJXWOc8AxJkK8.aRixzHx4Yvj4Ev7n3nSuAm</t>
+          <t>$2b$10$XaQPC/JR8lE15Sn.BvxbcOFfDdVE2cfXtlNXMfPf5o9H.wr2zyzl.</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$2b$10$n9gcYmfxARo1Yft8DnPt1emT.iY/YYG4N5nme9T0kEu9oPv8aVrgq</t>
+          <t>$2b$10$W1cs3CzREK5YPdR2.crjTe5BPnm.xbS86j1sqSBO2Uil.X432LBqW</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2b$10$u6KC6NjfbDRafhqRvDaW6.0lwHSpZvclk6s.iPmFn.rQ2anP6U0ai</t>
+          <t>$2b$10$bNAAOJ/wxUrTyf42GeZYcuCbeDeqpXcgE6P2p7gqDFjqa74glO.d2</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2b$10$/m5HnznXjuujiyM9WYpKTOUpDjmxTa3R8.58oZ6uoleXG/zPKDwQm</t>
+          <t>$2b$10$fJKoPt9t/ObJj6O8mj/zUu1tQESU6Tw3.fAxAsNke5BX.F6wMTrv2</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$2b$10$8QpOSn.C3yhdnelfmFSxTua7myop8Z2pOhfvA802BNfe9k/3MhbXS</t>
+          <t>$2b$10$B5qjGRTdetFzBfrGBaw4JevUd6hIWzmrD7tjk.iL2iOzA8e//yvkO</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$2b$10$aWTSqe37E55CK3IfT75XgOMxTbLl0vBwXrasdtdDJuEtSoqJ6jykq</t>
+          <t>$2b$10$.SPv/66kYKzuuyx7L.i84uRyoBSk.0VZ8Qbnn0u350Q4fxJGvyOw6</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$2b$10$xLcAH/xu10vX01YeQcUQ6eJGeHa95D.ARBvInaHQPCEucV90IhIF.</t>
+          <t>$2b$10$W683IFxAM15CFlGUrY3g.uINpAQRnPzOWUBEzL9gGZKF9VO6p0A3e</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$2b$10$OwbsCzpu4mhDQpM9lMk/XucpH8Dv4E92.WBVRTNb4XPm1PmmbgqXW</t>
+          <t>$2b$10$Mo22eEAO97GbfdNrXqG7POu1odE4DlkOnUzixtFpSAWkNOn8.izEm</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$2b$10$8.t3VLCcyyZUZwej/Vi3MOv92Lkgw22FLQXToBC0I76LGPszhxbP2</t>
+          <t>$2b$10$wO8cDxYezTX3wqWQlFUOvOYR/013Kb147UkLXqpw/mdgHRw41gZ02</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$2b$10$IDErbMq4m.f/ZG.m5gnopuveoC72Y0vNNK85r5F9ybkfSZMmnIzHi</t>
+          <t>$2b$10$kyuwAHsKAWO.WFy5hFwtveY89/FrwgwDjO5flbQrAZk0Agdazfz/m</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$2b$10$Nq8oFMsICbvEfBYaGhzgSuZTyq489XqDhs0znYGiKZuWaZ6O9w2li</t>
+          <t>$2b$10$8Xypu2JekmWPaqCr9CMicuCZ0MDYp6/h4gVGvBXaNyLdS9viwlpcu</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$2b$10$dvI/8aG7CoxCOFEDWyfDW.LMDRT4isu6BfKn.YviC0fch7/PTWzgS</t>
+          <t>$2b$10$RYJZZxaVbMua1ZzqKjJqlOCVinyjMHVMRk7JHACkEzQswFTge1M02</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$2b$10$3yixvJmtqFESFlDT0jxdLewblxPsqEUd9j.wEd9dLLzEAnRXHPDKu</t>
+          <t>$2b$10$KRuMDcWfTCePVMszpo98cuX3npdk3N8ObnOn1OcKChm6FW8hRiuH2</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2b$10$1Mwd19UzdiXBAbg.V1JQLehEAczA/dF17oJ45n3TC8GPqtIxrb3aO</t>
+          <t>$2b$10$rhvcXl..PGYHZvOhgUplheQTzKXwjPYaebcbUHPGJ7mdspx0I1coa</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$2b$10$H9WsuWgkDZ98eheQknpqtelFEWLs.SeMNWPJxRQM9iNBnOCOdOeqm</t>
+          <t>$2b$10$UIVD285dkqllY13KWt7ElOHqULYEoQf/XY5e.tmUHI9cbJYDOIeLi</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$2b$10$fdn9o6qlKmpS0OjAkabZAeMYld1E3bmd3cNTc89H3Z2peHP0LPs4i</t>
+          <t>$2b$10$3pS.cpIG3Sk/s0r1g0s58.znQ3u/6kqQ.eERH5Zuq6uDNbXPvtdkK</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2b$10$MzKBeVISBkgmAx48y8aZNOkx8jQKWA8WJe9ne7oz3eLNXq3bR034y</t>
+          <t>$2b$10$h8SbJcQ8NY2IuCag67Wyk.f7Ye173gbswSOunjpvtkqcDjmWm4qdG</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$2b$10$sz53cehQkiWZSey76ApdHOu64x3tcU7cHrWm6KNLhi/E46HhE8772</t>
+          <t>$2b$10$8w.WfWA0bmondadVzKJEkuNSpsy23.Cm6Jbt0nB0fARxyL.4zizfm</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$2b$10$N7fTIFOp3uHNYOjRAb6IyOyUofuC5BcIyXXp4UQd.jotlHv1vefVS</t>
+          <t>$2b$10$JlWKzE4insGc.s082HLg2OxjUpzQ5s8m1tXa0Rhb.xcC8Kp5YZorK</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$2b$10$KdfYcGkH0QyuncShHRZJNu3rFkXGciNdTCJJ836J5PzfcPmPRUpxC</t>
+          <t>$2b$10$4bd9X4Z0YVIb4ltox1NVjuAoEViSj65R0jniASWwisaIWHL0XkyZu</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$2b$10$PxTDh8jwFDOUFPrP34htkuZu0bcv6JMsTDTqH1mKkosfhLJ5/j5gC</t>
+          <t>$2b$10$k0tXpN97pQ/iQEK5SwxUpuuKE9n2xa0ono4aXhEViZM3VA4sbMEdS</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$2b$10$Z8QAWEluUwdNJHLQkllFVu4gVzob.TOhJ1DKP65TdRZpOFEvPupxu</t>
+          <t>$2b$10$9JnTrERVEyKcjQOhsA4rSe7Nd3x4P5R5xk2h8omvF9izxl6fBcBKC</t>
         </is>
       </c>
     </row>

--- a/passwords/dealers_password.xlsx
+++ b/passwords/dealers_password.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$2b$10$UE4Fy6vRoQ3ux6G8EZyJBOc5MMUPvm404K8cZ3bIXkoOFCKxQf2Ku</t>
+          <t>$2b$10$w7UTEHxgiHzfqskR92FNou8bJeESigklW6kK9JIc4eNtyOMlOQfJe</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2b$10$pGeUWPatady1022jQm31J.Nz6X6s3ZRVPec4qpJHHFtR/gOr/cusq</t>
+          <t>$2b$10$Aa2MpvDQyP6I/Dw.Qlmls.gRrBEvaYIjQDImGd5SVAb4CUHiClpHa</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$2b$10$OfyN0BEZ8iV3w0GlVZ2m7.jajxCP34XKlFiQaqYEHY6Qm12dC3UDy</t>
+          <t>$2b$10$woMEqSoLET5oX1ICEIBsYeJavfuNTr6b9U1ZHPeKNJVdEj.GcyQvO</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2b$10$RwLatoVIvWS/UV0ZOo6x0O5tOseBcUqmC3GAhO.R6TAM7ORH4c3xi</t>
+          <t>$2b$10$.JPeyM5ikTU0Dj.jw82WAurxydU4ERxoL2bPnxZJMUq8QpToB6w8i</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2b$10$PrPFHrODDQbxOUgA8xTQc.VoPD1UX4f06tRHPlzEfbpT5VsgMWrVK</t>
+          <t>$2b$10$ztsEgCrp/pVTKIrDt0y.wOfAMTaw6Z9ybaojpwtf/jVOuUr0ghY96</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$2b$10$W/M/oeyADIWz7FsyUpJ64.5e6zpqsJbwsFLJhOI6V6E0BOxSB54aS</t>
+          <t>$2b$10$5P1J.CRB7jnHdiYOxEJkkOJFSwOKR7MgGPUojFuZa3jmfrq2whKgm</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$2b$10$Bqo/DwW7n4IZDELnKr6t0.Hz7S/csVuEd274oCqh74tgADNsaGQAS</t>
+          <t>$2b$10$EOcFMmNzsLFhia1Ma08rJeUR4g5hCTikNxVUyAR1rQrwi9QVCfquK</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$2b$10$DNUXiJAxD.t6pgrt6anBaODTQI2o6m/q8BaOCyWFISeI72qAASSRe</t>
+          <t>$2b$10$8Kpw7EG1GfCbV/6EVIfSzuXWn5sd4PjqwIFpQsUUgRlaSj9C66.NC</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$2b$10$1sulnbcPoAiPfHeYlfJXWOc8AxJkK8.aRixzHx4Yvj4Ev7n3nSuAm</t>
+          <t>$2b$10$YFiIaIX051JhnhEM7I9NgOttLbXDm.Hr3.QUC20N.F/DDrDeeZH2W</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$2b$10$n9gcYmfxARo1Yft8DnPt1emT.iY/YYG4N5nme9T0kEu9oPv8aVrgq</t>
+          <t>$2b$10$uwavtLAhcGFKnzfEh16clukOeMlPYq6JhkQ5KRMrstqWu.pvTLBbq</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2b$10$u6KC6NjfbDRafhqRvDaW6.0lwHSpZvclk6s.iPmFn.rQ2anP6U0ai</t>
+          <t>$2b$10$8KkmWvXtQzRUZ1V1kMDkxerJdXPPnojKvKvjPu1CocpEVumRBCR32</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2b$10$/m5HnznXjuujiyM9WYpKTOUpDjmxTa3R8.58oZ6uoleXG/zPKDwQm</t>
+          <t>$2b$10$kKDLNSsAXqVAbmiwcH/0lOvJl.e52xH2pnrxGRRaQGi3fIo27ALK2</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$2b$10$8QpOSn.C3yhdnelfmFSxTua7myop8Z2pOhfvA802BNfe9k/3MhbXS</t>
+          <t>$2b$10$Y4/wy.h4i3PaFDGfV9ljZeUVnquhQwxNYn1e3NfmW6ozAwGfh0yfS</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$2b$10$aWTSqe37E55CK3IfT75XgOMxTbLl0vBwXrasdtdDJuEtSoqJ6jykq</t>
+          <t>$2b$10$BU7oDlB6mkXjaqubbwMUlunso2SvuWvGIN9RHBJPPwFsLa4g9NagW</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$2b$10$xLcAH/xu10vX01YeQcUQ6eJGeHa95D.ARBvInaHQPCEucV90IhIF.</t>
+          <t>$2b$10$DAyWU/3qTySd53/2e7A64.3zA1b4F7QCQ0Z7ZfFT/DMWYmwfBlSnm</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$2b$10$OwbsCzpu4mhDQpM9lMk/XucpH8Dv4E92.WBVRTNb4XPm1PmmbgqXW</t>
+          <t>$2b$10$uXh5ccczGw7Q5zwDO92xBucPb72l6S18KEhVcZlMQlvs902XF6gbC</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$2b$10$8.t3VLCcyyZUZwej/Vi3MOv92Lkgw22FLQXToBC0I76LGPszhxbP2</t>
+          <t>$2b$10$ezo2285gmT69KM9P9SxER.PcLYay.796cv0k2S7j4vu.e1yJjhgbK</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$2b$10$IDErbMq4m.f/ZG.m5gnopuveoC72Y0vNNK85r5F9ybkfSZMmnIzHi</t>
+          <t>$2b$10$yy/z0AGAbovY1Lt9cjyOT.Uhavmkh8GS1j37J3bmn0qesWXm9qnlS</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$2b$10$Nq8oFMsICbvEfBYaGhzgSuZTyq489XqDhs0znYGiKZuWaZ6O9w2li</t>
+          <t>$2b$10$iNgQTYuEwpxG4PfmnUMXtudcKyp1gtIkdnoXx/ZPHiM3lfQunPOpi</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$2b$10$dvI/8aG7CoxCOFEDWyfDW.LMDRT4isu6BfKn.YviC0fch7/PTWzgS</t>
+          <t>$2b$10$yyinjloyJgBYl9Fo2t17QO4ghZRFvALC8JeDg0ksujUpzCvN37PRC</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$2b$10$3yixvJmtqFESFlDT0jxdLewblxPsqEUd9j.wEd9dLLzEAnRXHPDKu</t>
+          <t>$2b$10$F8E5beGdLbfDOxLDiwe/.efNXH9de/ez74qp3yxCvasFWupB/jo4a</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2b$10$1Mwd19UzdiXBAbg.V1JQLehEAczA/dF17oJ45n3TC8GPqtIxrb3aO</t>
+          <t>$2b$10$iVpEnCqAg9jWeEH40keEm.4ejSuvOKfBBYZM4jXr6zU5YRYgqw.gS</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$2b$10$H9WsuWgkDZ98eheQknpqtelFEWLs.SeMNWPJxRQM9iNBnOCOdOeqm</t>
+          <t>$2b$10$Z8JHTNBZbvvpqjOM/hrekubfP8zF32qKU2o6pR9MG0pK7QakdwCWq</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$2b$10$fdn9o6qlKmpS0OjAkabZAeMYld1E3bmd3cNTc89H3Z2peHP0LPs4i</t>
+          <t>$2b$10$yXd0/wsXMHTXOXIQiC63U.dVd2WIbsE.IXQBEuzKHAT/hbbhrUVe6</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$2b$10$MzKBeVISBkgmAx48y8aZNOkx8jQKWA8WJe9ne7oz3eLNXq3bR034y</t>
+          <t>$2b$10$z9XUl/AcEfTH9zZVGPS2led2PwcVFrmnUp1SosRs0Vhf7vRenmjIe</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$2b$10$sz53cehQkiWZSey76ApdHOu64x3tcU7cHrWm6KNLhi/E46HhE8772</t>
+          <t>$2b$10$b4zdlfaPQXb/uAPaLSH/aObglLLEEkxfTRrhhHpwpaLwHSC5tMWnW</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$2b$10$N7fTIFOp3uHNYOjRAb6IyOyUofuC5BcIyXXp4UQd.jotlHv1vefVS</t>
+          <t>$2b$10$RBN0PSBGbYHAGfsL4.LISenI7dY1iL1weIXVhY1rZXU91GLrpU.ca</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$2b$10$KdfYcGkH0QyuncShHRZJNu3rFkXGciNdTCJJ836J5PzfcPmPRUpxC</t>
+          <t>$2b$10$nmQOHH0MeCunWxFrE6EiheQP/e4PLzUSYOz60s34N8HHqmR.keani</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$2b$10$PxTDh8jwFDOUFPrP34htkuZu0bcv6JMsTDTqH1mKkosfhLJ5/j5gC</t>
+          <t>$2b$10$bK1Gnhzi2L6/hiF6GpLZE.e.VjhdNtr3pp9dVJmMRlSGJFibp5NNW</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$2b$10$Z8QAWEluUwdNJHLQkllFVu4gVzob.TOhJ1DKP65TdRZpOFEvPupxu</t>
+          <t>$2b$10$o5pPROJmnQ.DZbg.LVvtKe8EZ6dXDxDtl8hvkqkFDZUCNafJX3LGW</t>
         </is>
       </c>
     </row>
